--- a/biology/Zoologie/Arac_Attack,_les_monstres_à_huit_pattes/Arac_Attack,_les_monstres_à_huit_pattes.xlsx
+++ b/biology/Zoologie/Arac_Attack,_les_monstres_à_huit_pattes/Arac_Attack,_les_monstres_à_huit_pattes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Arac_Attack,_les_monstres_%C3%A0_huit_pattes</t>
+          <t>Arac_Attack,_les_monstres_à_huit_pattes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Arac Attack, les monstres à huit pattes ou Terreur sur huit pattes au Québec (Eight Legged Freaks) est une comédie horrifique américaine réalisée par Ellory Elkayem, sorti en 2002.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Arac_Attack,_les_monstres_%C3%A0_huit_pattes</t>
+          <t>Arac_Attack,_les_monstres_à_huit_pattes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après être entrées en contact avec un bidon rempli de produits chimiques, des araignées se mettent à grandir de façon anormale et attaquent la ville de Prosperity, paisible cité ouvrière située en Arizona. Pendant ce temps là, un jeune garçon solitaire et intellectuel est fasciné par ces araignées.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Arac_Attack,_les_monstres_%C3%A0_huit_pattes</t>
+          <t>Arac_Attack,_les_monstres_à_huit_pattes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Arac Attack, les monstres à huit pattes
 Titre original : Eight Legged Freaks
@@ -571,7 +587,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Arac_Attack,_les_monstres_%C3%A0_huit_pattes</t>
+          <t>Arac_Attack,_les_monstres_à_huit_pattes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -589,7 +605,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>David Arquette (VF : David Krüger et  VQ : Sébastien Dhavernas) : Chris McCormick
 Kari Wuhrer (VF : Catherine Hamilty et VQ : Christine Séguin) : Sheriff Samantha Parker
@@ -618,7 +636,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Arac_Attack,_les_monstres_%C3%A0_huit_pattes</t>
+          <t>Arac_Attack,_les_monstres_à_huit_pattes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -638,8 +656,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tournage
-Le tournage a débuté le 8 janvier 2001 à Glendale et Superior, en Arizona.
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage a débuté le 8 janvier 2001 à Glendale et Superior, en Arizona.
 </t>
         </is>
       </c>
@@ -650,7 +673,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Arac_Attack,_les_monstres_%C3%A0_huit_pattes</t>
+          <t>Arac_Attack,_les_monstres_à_huit_pattes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -668,7 +691,9 @@
           <t>Bande originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Itsy Bitsy Spider, interprété par Joey DeLuxe
 Dim Memory, interprété par Soul Circle
@@ -683,7 +708,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Arac_Attack,_les_monstres_%C3%A0_huit_pattes</t>
+          <t>Arac_Attack,_les_monstres_à_huit_pattes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -703,8 +728,13 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Nomination
-2003 : nommé au Saturn Award du Meilleur film d'horreur.</t>
+          <t>Nomination</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2003 : nommé au Saturn Award du Meilleur film d'horreur.</t>
         </is>
       </c>
     </row>
@@ -714,7 +744,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Arac_Attack,_les_monstres_%C3%A0_huit_pattes</t>
+          <t>Arac_Attack,_les_monstres_à_huit_pattes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -732,9 +762,11 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Arac Attack, les monstres à huit pattes est inspiré du court-métrage néo-zélandais de 13 minutes : Larger than Life (1997) de Ellory Elkayem[1].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Arac Attack, les monstres à huit pattes est inspiré du court-métrage néo-zélandais de 13 minutes : Larger than Life (1997) de Ellory Elkayem.
 Le film est dédié à la mémoire de Lewis Arquette, père de David Arquette, ainsi qu'à Don Devlin, père de Dean Devlin qui est l'un des producteurs du film.</t>
         </is>
       </c>
